--- a/Exercicios/1.3-exercicio-pclinics/01_modelagem_fisico.xlsx
+++ b/Exercicios/1.3-exercicio-pclinics/01_modelagem_fisico.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C5FF13-E012-41BD-8157-9847EA8EA5E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{D7C5FF13-E012-41BD-8157-9847EA8EA5E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{51B8A083-3E47-4C2A-BADE-1A0F8E630BFD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pclinics" sheetId="1" r:id="rId1"/>
@@ -690,26 +690,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>5</v>
       </c>
@@ -724,7 +724,7 @@
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -753,7 +753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>13</v>
       </c>
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -870,7 +870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F9" s="10">
         <v>1</v>
       </c>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>14</v>
       </c>
@@ -909,7 +909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1</v>
       </c>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2</v>
       </c>
@@ -967,7 +967,7 @@
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>3</v>
       </c>
@@ -996,7 +996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>4</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F16" s="12">
         <v>2</v>
       </c>
